--- a/XForms/Campsite.xlsx
+++ b/XForms/Campsite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">relevant</t>
   </si>
   <si>
+    <t xml:space="preserve">appearance</t>
+  </si>
+  <si>
     <t xml:space="preserve">start</t>
   </si>
   <si>
@@ -54,105 +57,87 @@
     <t xml:space="preserve">today</t>
   </si>
   <si>
+    <t xml:space="preserve">start-geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warmup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS Coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is available ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please take a GPS point at the feature location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are we ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placement-map</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name or ID ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where are we ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is available ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anything that doesn't fit any choices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please take a GPS point at the feature location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placement-map</t>
-  </si>
-  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
     <t xml:space="preserve">Any other comments about this feature</t>
   </si>
   <si>
-    <t xml:space="preserve">minimal</t>
-  </si>
-  <si>
     <t xml:space="preserve">audio</t>
   </si>
   <si>
     <t xml:space="preserve">Audio Note</t>
   </si>
   <si>
-    <t xml:space="preserve">odktest.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">image</t>
   </si>
   <si>
     <t xml:space="preserve">Take A Picture</t>
   </si>
   <si>
-    <t xml:space="preserve">odktest.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">end_group</t>
   </si>
   <si>
@@ -256,6 +241,9 @@
   </si>
   <si>
     <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2</t>
   </si>
   <si>
     <t xml:space="preserve">Campsite</t>
@@ -269,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -291,6 +279,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -361,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,82 +366,94 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -467,13 +474,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.58"/>
@@ -504,263 +511,393 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="3" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="F9" s="12"/>
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="10" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="F10" s="12"/>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+    </row>
+    <row r="12" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="0"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="0"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+    </row>
+    <row r="13" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+    </row>
+    <row r="14" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+    </row>
+    <row r="15" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -774,167 +911,9 @@
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-    </row>
-    <row r="17" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-    </row>
-    <row r="18" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-    </row>
-    <row r="19" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -951,10 +930,10 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="I8:I14 A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.82"/>
@@ -963,7 +942,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -978,10 +957,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,10 +968,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,10 +1001,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,10 +1012,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,10 +1023,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,10 +1034,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,10 +1045,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,10 +1056,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1067,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,49 +1089,49 @@
         <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1169,10 +1148,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="I8:I14 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="10.5"/>
@@ -1180,24 +1159,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
-        <f aca="true">NOW()</f>
-        <v>44391.419244747</v>
+      <c r="A2" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
